--- a/data/xlsx/skill.xlsx
+++ b/data/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E464F5-BC35-4398-B995-338C12161A84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86498C13-F98F-4600-ACD8-013EE0BA6AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Event Bridge</t>
   </si>
   <si>
-    <t>Cloud Watch</t>
-  </si>
-  <si>
     <t>Amazon Machine Image (AMI)</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Athena</t>
   </si>
   <si>
-    <t>Sage Maker</t>
-  </si>
-  <si>
     <t>Relational Database Service (RDS)</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Route 53</t>
   </si>
   <si>
-    <t>Cloud Front</t>
-  </si>
-  <si>
     <t>Elastic Container Registry (ECR)</t>
   </si>
   <si>
@@ -188,6 +179,138 @@
   </si>
   <si>
     <t>Blob</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>Integrated Development Environment (IDE)</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>RubyMine</t>
+  </si>
+  <si>
+    <t>WebStorm</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Build Automation Tool</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>SageMaker</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Table Storage</t>
+  </si>
+  <si>
+    <t>jUnit</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Programming Language Testing Framework</t>
+  </si>
+  <si>
+    <t>RSpec</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>NoSQL Database</t>
+  </si>
+  <si>
+    <t>Virtual Machine (VM)</t>
+  </si>
+  <si>
+    <t>Public IP</t>
+  </si>
+  <si>
+    <t>Network Security Group (NSG)</t>
+  </si>
+  <si>
+    <t>Disk Storage</t>
+  </si>
+  <si>
+    <t>Virtual Network</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>EXPERT</t>
+  </si>
+  <si>
+    <t>COMPETENT</t>
+  </si>
+  <si>
+    <t>NOVICE</t>
   </si>
 </sst>
 </file>
@@ -714,7 +837,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1071,15 +1194,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1096,10 +1221,10 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1107,10 +1232,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1118,10 +1243,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1129,10 +1254,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1143,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1151,7 +1276,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1162,10 +1287,10 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1173,10 +1298,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1184,10 +1309,10 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1195,10 +1320,10 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1209,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1217,10 +1342,10 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1231,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1239,10 +1364,10 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1250,10 +1375,10 @@
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1264,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1272,10 +1397,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1286,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1297,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1305,7 +1430,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -1316,10 +1441,10 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1327,10 +1452,10 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1338,10 +1463,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1349,10 +1474,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1363,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1374,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1385,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1393,10 +1518,10 @@
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1404,185 +1529,515 @@
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C45" xr:uid="{DEF0C661-C194-46DE-8E0B-93123FCCE670}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
-      <sortCondition ref="C2:C45"/>
-      <sortCondition ref="A2:A45"/>
+  <autoFilter ref="A1:C44" xr:uid="{DEF0C661-C194-46DE-8E0B-93123FCCE670}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+      <sortCondition ref="C2:C75"/>
+      <sortCondition ref="A2:A75"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/skill.xlsx
+++ b/data/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EFE5A-0A8E-4710-A0B9-47BEAA42929E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFF70B-63D4-456C-8031-1F61C7A6372D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$D$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
   <si>
     <t>name</t>
   </si>
@@ -667,6 +667,48 @@
   </si>
   <si>
     <t>Serverless Framework</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89"
+]</t>
+  </si>
+  <si>
+    <t>[
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6"
+]</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89",
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6"
+]</t>
+  </si>
+  <si>
+    <t>[
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a"
+]</t>
+  </si>
+  <si>
+    <t>[
+"2ed5500a-34ee-42a9-b053-77369cbc065a"
+]</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89",
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a"
+]</t>
+  </si>
+  <si>
+    <t>[
+"31793aed-8cbe-40e4-b0f6-1b90a098e999"
+]</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1197,6 +1239,9 @@
     </xf>
     <xf numFmtId="11" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1553,20 +1598,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>195</v>
       </c>
@@ -1577,10 +1624,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -1590,1134 +1640,1299 @@
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="D56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="1" t="s">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>189</v>
+        <v>37</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D82" xr:uid="{B15ECF06-D5B9-4CA4-A87E-B209EF10E7E5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:E82" xr:uid="{B15ECF06-D5B9-4CA4-A87E-B209EF10E7E5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E82">
+      <sortCondition ref="B1:B82"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/skill.xlsx
+++ b/data/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFF70B-63D4-456C-8031-1F61C7A6372D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B340381-DD77-4533-8A56-F0A48E48798F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2632,7 @@
         <v>109</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">

--- a/data/xlsx/skill.xlsx
+++ b/data/xlsx/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\WebstormProjects\CloudGuruChallenge_21.04\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B340381-DD77-4533-8A56-F0A48E48798F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087CF91-EC78-4BBC-A0B0-F8A90F506AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$1:$E$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="256">
   <si>
     <t>name</t>
   </si>
@@ -678,12 +678,6 @@
   </si>
   <si>
     <t>[
-"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6"
-]</t>
-  </si>
-  <si>
-    <t>[
-"259adedf-5510-42a8-9a28-c72754626b89",
 "4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6"
 ]</t>
   </si>
@@ -708,6 +702,158 @@
   <si>
     <t>[
 "31793aed-8cbe-40e4-b0f6-1b90a098e999"
+]</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>a575ee85-5c8b-40f7-bc34-68e513a409d4</t>
+  </si>
+  <si>
+    <t>NgRx</t>
+  </si>
+  <si>
+    <t>Angular Framework</t>
+  </si>
+  <si>
+    <t>75fa0327-ce2c-4411-a009-8001a952ec32</t>
+  </si>
+  <si>
+    <t>6a10d9ad-3572-4b3c-a215-6051e5d2f34a</t>
+  </si>
+  <si>
+    <t>Node Package Manager</t>
+  </si>
+  <si>
+    <t>87a55ddf-cf81-4419-973c-95e31b3c1fab</t>
+  </si>
+  <si>
+    <t>NuGet</t>
+  </si>
+  <si>
+    <t>C# Package Manager</t>
+  </si>
+  <si>
+    <t>JavaScript Package Manager</t>
+  </si>
+  <si>
+    <t>[
+"6054440c-63aa-4714-913e-38125944d213"
+]</t>
+  </si>
+  <si>
+    <t>[
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a",
+"6054440c-63aa-4714-913e-38125944d213"
+]</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89",
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a",
+"6054440c-63aa-4714-913e-38125944d213"
+]</t>
+  </si>
+  <si>
+    <t>[
+"31793aed-8cbe-40e4-b0f6-1b90a098e999",
+"6054440c-63aa-4714-913e-38125944d213"
+]</t>
+  </si>
+  <si>
+    <t>[
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"6054440c-63aa-4714-913e-38125944d213"
+]</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89",
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a",
+"31793aed-8cbe-40e4-b0f6-1b90a098e999",
+"6054440c-63aa-4714-913e-38125944d213",
+"f873ba47-3d3c-4e17-9142-5f7f64dfa748"
+]</t>
+  </si>
+  <si>
+    <t>AWS ElastiCache</t>
+  </si>
+  <si>
+    <t>c717991b-a2d9-4018-aa7b-b7a5a0d853a9</t>
+  </si>
+  <si>
+    <t>1a3e1c8c-597d-4417-bd06-67291cd977b9</t>
+  </si>
+  <si>
+    <t>AWS NAT Gateway</t>
+  </si>
+  <si>
+    <t>da404bbe-55c7-4982-985c-8e6eb8a361d1</t>
+  </si>
+  <si>
+    <t>AWS Security Group</t>
+  </si>
+  <si>
+    <t>cd4f673a-c163-44b1-9094-ed6b84254841</t>
+  </si>
+  <si>
+    <t>Jinja</t>
+  </si>
+  <si>
+    <t>Template Engine</t>
+  </si>
+  <si>
+    <t>d7ab57b5-c12c-43c2-8945-5bf47866582e</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>In-Memory Database</t>
+  </si>
+  <si>
+    <t>Managed In-Memory Database</t>
+  </si>
+  <si>
+    <t>Managed Relational Database</t>
+  </si>
+  <si>
+    <t>c7fc4924-3f02-45b7-b0a5-a8db0884b81c</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Managed NoSQL Database</t>
+  </si>
+  <si>
+    <t>[
+"f873ba47-3d3c-4e17-9142-5f7f64dfa748"
+]</t>
+  </si>
+  <si>
+    <t>[
+"259adedf-5510-42a8-9a28-c72754626b89",
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"f873ba47-3d3c-4e17-9142-5f7f64dfa748"
+]</t>
+  </si>
+  <si>
+    <t>[
+"4c5bdbad-b5d8-4bb2-bf49-f0244fd365f6",
+"2ed5500a-34ee-42a9-b053-77369cbc065a",
+"6054440c-63aa-4714-913e-38125944d213",
+"f873ba47-3d3c-4e17-9142-5f7f64dfa748"
+]</t>
+  </si>
+  <si>
+    <t>[
+"6054440c-63aa-4714-913e-38125944d213",
+"f873ba47-3d3c-4e17-9142-5f7f64dfa748"
 ]</t>
   </si>
 </sst>
@@ -1598,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1786,9 @@
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
@@ -1655,7 +1803,9 @@
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1836,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>83</v>
@@ -1736,7 +1886,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,7 +1914,9 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1949,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
@@ -1860,7 +2012,9 @@
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1899,1016 +2053,1042 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>212</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>132</v>
+      <c r="A53" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>215</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>217</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
@@ -2916,23 +3096,187 @@
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1" t="s">
+      <c r="D92" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E82" xr:uid="{B15ECF06-D5B9-4CA4-A87E-B209EF10E7E5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E82">
-      <sortCondition ref="B1:B82"/>
+  <autoFilter ref="A1:E92" xr:uid="{B15ECF06-D5B9-4CA4-A87E-B209EF10E7E5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E92">
+      <sortCondition ref="B1:B92"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
